--- a/backend/web/templates/template_works_today.xlsx
+++ b/backend/web/templates/template_works_today.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ABDF57-C25F-4014-93D7-ADD970C6521E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ДАТА СОБЫТИЯ</t>
   </si>
@@ -67,12 +68,15 @@
   </si>
   <si>
     <t>Диагноз</t>
+  </si>
+  <si>
+    <t>Выполнение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -169,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,12 +182,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -191,6 +190,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,11 +474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -488,24 +490,26 @@
     <col min="6" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" customWidth="1"/>
     <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="81.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="81.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="7">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8">
         <v>43271</v>
       </c>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="25.5">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -531,21 +535,25 @@
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -555,7 +563,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -565,7 +573,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -575,38 +583,38 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:10">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:10">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/backend/web/templates/template_works_today.xlsx
+++ b/backend/web/templates/template_works_today.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ABDF57-C25F-4014-93D7-ADD970C6521E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -197,7 +196,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,7 +473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
